--- a/DWCPRO_設計課題_アプリケーション詳細設計書_回答用.xlsx のコピー.xlsx
+++ b/DWCPRO_設計課題_アプリケーション詳細設計書_回答用.xlsx のコピー.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>コントローラ</t>
   </si>
@@ -160,7 +160,7 @@
     <t>public/customers</t>
   </si>
   <si>
-    <t>/customers/:id</t>
+    <t>/customers/my_page</t>
   </si>
   <si>
     <t>顧客のマイページ</t>
@@ -169,7 +169,7 @@
     <t>edit</t>
   </si>
   <si>
-    <t>/customers/:id/edit</t>
+    <t>/customers/edit</t>
   </si>
   <si>
     <t>顧客の登録情報編集画面</t>
@@ -187,12 +187,18 @@
     <t>hide</t>
   </si>
   <si>
-    <t>/customers/:id/hide</t>
+    <t>/customers/hide</t>
   </si>
   <si>
     <t>顧客の退会確認画面</t>
   </si>
   <si>
+    <t>withdrawal</t>
+  </si>
+  <si>
+    <t>/customers/withdrawal</t>
+  </si>
+  <si>
     <t>顧客の退会処理(ステータスの更新)</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>destroy_all</t>
   </si>
   <si>
+    <t>/cart_items/destroy_all</t>
+  </si>
+  <si>
     <t>カート内商品データ削除(全て)</t>
   </si>
   <si>
@@ -235,19 +244,25 @@
     <t>confirm</t>
   </si>
   <si>
+    <t>/orders/confirm</t>
+  </si>
+  <si>
     <t>注文情報確認画面</t>
   </si>
   <si>
     <t>complete</t>
   </si>
   <si>
+    <t>/orders/complete</t>
+  </si>
+  <si>
     <t>注文完了画面</t>
   </si>
   <si>
+    <t>/orders</t>
+  </si>
+  <si>
     <t>注文確定処理</t>
-  </si>
-  <si>
-    <t>/orders</t>
   </si>
   <si>
     <r>
@@ -436,7 +451,10 @@
     <t>注文ステータス・着手状況の更新</t>
   </si>
   <si>
-    <t>admin/production_status</t>
+    <t>admin/order_history_details</t>
+  </si>
+  <si>
+    <t>admin/order_history_details/:id</t>
   </si>
   <si>
     <t>製作ステータスの更新</t>
@@ -1174,7 +1192,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.14"/>
+    <col customWidth="1" min="1" max="1" width="24.71"/>
     <col customWidth="1" min="2" max="2" width="10.43"/>
     <col customWidth="1" min="3" max="3" width="13.43"/>
     <col customWidth="1" min="4" max="4" width="48.43"/>
@@ -1389,7 +1407,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>44</v>
@@ -1413,21 +1431,21 @@
     <row r="16">
       <c r="A16" s="10"/>
       <c r="B16" s="15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>14</v>
@@ -1436,10 +1454,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -1451,10 +1469,10 @@
         <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -1466,25 +1484,25 @@
         <v>33</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="13"/>
       <c r="B20" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -1496,15 +1514,15 @@
         <v>25</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>21</v>
@@ -1513,40 +1531,40 @@
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
       <c r="B23" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
       <c r="B24" s="15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1558,10 +1576,10 @@
         <v>25</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1573,10 +1591,10 @@
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -1588,15 +1606,15 @@
         <v>7</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>14</v>
@@ -1605,10 +1623,10 @@
         <v>7</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -1620,10 +1638,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -1635,10 +1653,10 @@
         <v>25</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -1650,10 +1668,10 @@
         <v>43</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -1665,10 +1683,10 @@
         <v>33</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -1680,7 +1698,7 @@
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>21</v>
@@ -1689,10 +1707,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -1704,10 +1722,10 @@
         <v>25</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -1719,15 +1737,15 @@
         <v>33</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>6</v>
@@ -1736,16 +1754,16 @@
         <v>7</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F37" s="38"/>
     </row>
     <row r="38">
       <c r="A38" s="39" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>14</v>
@@ -1754,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>16</v>
@@ -1769,10 +1787,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -1784,10 +1802,10 @@
         <v>25</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -1799,10 +1817,10 @@
         <v>7</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -1814,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -1829,15 +1847,15 @@
         <v>43</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="40" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>14</v>
@@ -1846,10 +1864,10 @@
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -1861,10 +1879,10 @@
         <v>25</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -1876,10 +1894,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -1891,15 +1909,15 @@
         <v>43</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="40" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>14</v>
@@ -1908,10 +1926,10 @@
         <v>7</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
@@ -1923,10 +1941,10 @@
         <v>7</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
@@ -1938,10 +1956,10 @@
         <v>7</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
@@ -1953,15 +1971,15 @@
         <v>43</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="41" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>17</v>
@@ -1970,18 +1988,18 @@
         <v>7</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="41" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>42</v>
@@ -1990,15 +2008,15 @@
         <v>43</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="43" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B54" s="44" t="s">
         <v>42</v>
@@ -2007,10 +2025,10 @@
         <v>43</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F54" s="42"/>
     </row>
@@ -2061,37 +2079,37 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="42" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="42" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
